--- a/training/output/Resnet34_ViT/P/P1_P2.xlsx
+++ b/training/output/Resnet34_ViT/P/P1_P2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8804824561403509</v>
+        <v>0.705</v>
       </c>
       <c r="B2" t="n">
-        <v>1.764969815287674</v>
+        <v>1.495610545663273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.8505882352941176</v>
       </c>
       <c r="B3" t="n">
-        <v>1.538961105179368</v>
+        <v>1.213817519300124</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.875</v>
       </c>
       <c r="B4" t="n">
-        <v>1.482368174352144</v>
+        <v>1.072007088100209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9846491228070176</v>
+        <v>0.9061764705882354</v>
       </c>
       <c r="B5" t="n">
-        <v>1.432536340596383</v>
+        <v>0.9714653737404767</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.928235294117647</v>
       </c>
       <c r="B6" t="n">
-        <v>1.434438517219142</v>
+        <v>0.8969074592870825</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9835526315789473</v>
+        <v>0.9420588235294118</v>
       </c>
       <c r="B7" t="n">
-        <v>1.432849549410636</v>
+        <v>0.8523490814601674</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9432352941176471</v>
       </c>
       <c r="B8" t="n">
-        <v>1.449183606264884</v>
+        <v>0.8412854075431824</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.951764705882353</v>
       </c>
       <c r="B9" t="n">
-        <v>1.429559975339655</v>
+        <v>0.8049499743125018</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9541176470588235</v>
       </c>
       <c r="B10" t="n">
-        <v>1.411520014729416</v>
+        <v>0.7879822885288912</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9541176470588235</v>
       </c>
       <c r="B11" t="n">
-        <v>1.454473522671482</v>
+        <v>0.7699690706589642</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9555882352941177</v>
       </c>
       <c r="B12" t="n">
-        <v>1.441964423447325</v>
+        <v>0.7553020575467277</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9846491228070176</v>
+        <v>0.958529411764706</v>
       </c>
       <c r="B13" t="n">
-        <v>1.434862258141501</v>
+        <v>0.7460992581704083</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.958235294117647</v>
       </c>
       <c r="B14" t="n">
-        <v>1.43243888595648</v>
+        <v>0.7434582850512337</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9594117647058823</v>
       </c>
       <c r="B15" t="n">
-        <v>1.408898719570093</v>
+        <v>0.7380551134838778</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9588235294117645</v>
       </c>
       <c r="B16" t="n">
-        <v>1.409162680308024</v>
+        <v>0.7310685725773082</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.9588235294117647</v>
       </c>
       <c r="B17" t="n">
-        <v>1.40018051549008</v>
+        <v>0.7289639606195337</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.9570588235294117</v>
       </c>
       <c r="B18" t="n">
-        <v>1.405442097730804</v>
+        <v>0.7301800776930416</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.981359649122807</v>
+        <v>0.9594117647058823</v>
       </c>
       <c r="B19" t="n">
-        <v>1.428513884544373</v>
+        <v>0.7254428057109609</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.981359649122807</v>
+        <v>0.9605882352941175</v>
       </c>
       <c r="B20" t="n">
-        <v>1.459444966232567</v>
+        <v>0.7311869964880102</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9846491228070176</v>
+        <v>0.9605882352941175</v>
       </c>
       <c r="B21" t="n">
-        <v>1.433465696217721</v>
+        <v>0.7252528597326839</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9623529411764705</v>
       </c>
       <c r="B22" t="n">
-        <v>1.41979045616953</v>
+        <v>0.7215807367773617</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9605882352941175</v>
       </c>
       <c r="B23" t="n">
-        <v>1.402307955842269</v>
+        <v>0.7270604968070984</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.9611764705882353</v>
       </c>
       <c r="B24" t="n">
-        <v>1.4102353024901</v>
+        <v>0.7242580862606273</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.956764705882353</v>
       </c>
       <c r="B25" t="n">
-        <v>1.417861917562652</v>
+        <v>0.7241466746610754</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9602941176470587</v>
       </c>
       <c r="B26" t="n">
-        <v>1.401343412566603</v>
+        <v>0.7250733375549316</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9605882352941175</v>
       </c>
       <c r="B27" t="n">
-        <v>1.396051496790166</v>
+        <v>0.7192728975239921</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9605882352941175</v>
       </c>
       <c r="B28" t="n">
-        <v>1.405455980384559</v>
+        <v>0.7216627878301284</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9594117647058823</v>
       </c>
       <c r="B29" t="n">
-        <v>1.414693566790798</v>
+        <v>0.7234650219188017</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9629411764705883</v>
       </c>
       <c r="B30" t="n">
-        <v>1.403363915911892</v>
+        <v>0.7177125601207509</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9644117647058823</v>
       </c>
       <c r="B31" t="n">
-        <v>1.399693898987352</v>
+        <v>0.7158004886963788</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9611764705882353</v>
       </c>
       <c r="B32" t="n">
-        <v>1.400198359238474</v>
+        <v>0.7201188978026895</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9617647058823531</v>
       </c>
       <c r="B33" t="n">
-        <v>1.397042910257975</v>
+        <v>0.7171919310794157</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9635294117647059</v>
       </c>
       <c r="B34" t="n">
-        <v>1.413464970755995</v>
+        <v>0.7213548211490407</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9620588235294117</v>
       </c>
       <c r="B35" t="n">
-        <v>1.423175581714563</v>
+        <v>0.7125630939708036</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9623529411764705</v>
       </c>
       <c r="B36" t="n">
-        <v>1.407008953261794</v>
+        <v>0.7152814584619859</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9608823529411765</v>
       </c>
       <c r="B37" t="n">
-        <v>1.396643101123341</v>
+        <v>0.7155047549920923</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9617647058823529</v>
       </c>
       <c r="B38" t="n">
-        <v>1.393412255404288</v>
+        <v>0.7113593536264756</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9626470588235293</v>
       </c>
       <c r="B39" t="n">
-        <v>1.391769005541216</v>
+        <v>0.71215399573831</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9608823529411765</v>
       </c>
       <c r="B40" t="n">
-        <v>1.393618203046029</v>
+        <v>0.7120181251974667</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9608823529411765</v>
       </c>
       <c r="B41" t="n">
-        <v>1.39141371375636</v>
+        <v>0.7118494054850411</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9629411764705881</v>
       </c>
       <c r="B42" t="n">
-        <v>1.39117081332625</v>
+        <v>0.713333413881414</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9629411764705881</v>
       </c>
       <c r="B43" t="n">
-        <v>1.394954570552759</v>
+        <v>0.7122134811737958</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9644117647058823</v>
       </c>
       <c r="B44" t="n">
-        <v>1.395067718991062</v>
+        <v>0.7107386834481183</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9632352941176471</v>
       </c>
       <c r="B45" t="n">
-        <v>1.39382875593085</v>
+        <v>0.7143297756419462</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.9667647058823529</v>
       </c>
       <c r="B46" t="n">
-        <v>1.399872583255433</v>
+        <v>0.7126319688909194</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9605882352941175</v>
       </c>
       <c r="B47" t="n">
-        <v>1.392445823602509</v>
+        <v>0.7096491981955135</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9626470588235293</v>
       </c>
       <c r="B48" t="n">
-        <v>1.393134639974226</v>
+        <v>0.7088588335934807</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9641176470588235</v>
       </c>
       <c r="B49" t="n">
-        <v>1.404579737730194</v>
+        <v>0.7105242609977722</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9626470588235293</v>
       </c>
       <c r="B50" t="n">
-        <v>1.396526830238208</v>
+        <v>0.7102320790290833</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9608823529411765</v>
       </c>
       <c r="B51" t="n">
-        <v>1.393990332620186</v>
+        <v>0.7099531783777124</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9617647058823529</v>
       </c>
       <c r="B52" t="n">
-        <v>1.409676740044042</v>
+        <v>0.7112816817620221</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9641176470588235</v>
       </c>
       <c r="B53" t="n">
-        <v>1.395102440265187</v>
+        <v>0.7084640650188222</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9641176470588235</v>
       </c>
       <c r="B54" t="n">
-        <v>1.407794011266608</v>
+        <v>0.7089068714310142</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9655882352941176</v>
       </c>
       <c r="B55" t="n">
-        <v>1.39910092061026</v>
+        <v>0.7086538917878095</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9641176470588235</v>
       </c>
       <c r="B56" t="n">
-        <v>1.403626803766217</v>
+        <v>0.7080168969490949</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9623529411764705</v>
       </c>
       <c r="B57" t="n">
-        <v>1.402141838742976</v>
+        <v>0.7096531426205355</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9608823529411765</v>
       </c>
       <c r="B58" t="n">
-        <v>1.393931418134455</v>
+        <v>0.7102332711219788</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9570588235294117</v>
       </c>
       <c r="B59" t="n">
-        <v>1.3904691599963</v>
+        <v>0.706591388758491</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.993421052631579</v>
+        <v>0.96</v>
       </c>
       <c r="B60" t="n">
-        <v>1.434671853718005</v>
+        <v>0.7071812187924105</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9588235294117645</v>
       </c>
       <c r="B61" t="n">
-        <v>1.391993313504938</v>
+        <v>0.7078156225821551</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9602941176470587</v>
       </c>
       <c r="B62" t="n">
-        <v>1.393198900055467</v>
+        <v>0.7080870726529289</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9608823529411765</v>
       </c>
       <c r="B63" t="n">
-        <v>1.398707224611651</v>
+        <v>0.7078705044353709</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9602941176470587</v>
       </c>
       <c r="B64" t="n">
-        <v>1.390017147649798</v>
+        <v>0.7075096789528342</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9626470588235293</v>
       </c>
       <c r="B65" t="n">
-        <v>1.3933197950062</v>
+        <v>0.7070640150238486</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9608823529411765</v>
       </c>
       <c r="B66" t="n">
-        <v>1.428636778864944</v>
+        <v>0.7054435260155622</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9608823529411765</v>
       </c>
       <c r="B67" t="n">
-        <v>1.402601484666791</v>
+        <v>0.7061729150659898</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9597058823529413</v>
       </c>
       <c r="B68" t="n">
-        <v>1.393388789996766</v>
+        <v>0.7067237776868484</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9576470588235293</v>
       </c>
       <c r="B69" t="n">
-        <v>1.39043222603045</v>
+        <v>0.7070372209829443</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9602941176470587</v>
       </c>
       <c r="B70" t="n">
-        <v>1.391555359489039</v>
+        <v>0.7068356696297141</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9594117647058823</v>
       </c>
       <c r="B71" t="n">
-        <v>1.416495603427552</v>
+        <v>0.7079765586292043</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9588235294117645</v>
       </c>
       <c r="B72" t="n">
-        <v>1.396731784469203</v>
+        <v>0.7071215720737681</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9602941176470587</v>
       </c>
       <c r="B73" t="n">
-        <v>1.433099274049725</v>
+        <v>0.7049633334664738</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9614705882352941</v>
       </c>
       <c r="B74" t="n">
-        <v>1.393441783754449</v>
+        <v>0.7052720820202547</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9620588235294117</v>
       </c>
       <c r="B75" t="n">
-        <v>1.395902374334503</v>
+        <v>0.7054842500125661</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9626470588235293</v>
       </c>
       <c r="B76" t="n">
-        <v>1.390278356117115</v>
+        <v>0.7070818823926589</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9629411764705883</v>
       </c>
       <c r="B77" t="n">
-        <v>1.389955501807363</v>
+        <v>0.7042602055213031</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9614705882352941</v>
       </c>
       <c r="B78" t="n">
-        <v>1.395862750839769</v>
+        <v>0.7060019233647514</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9617647058823529</v>
       </c>
       <c r="B79" t="n">
-        <v>1.396306744793005</v>
+        <v>0.7071954082040226</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9608823529411765</v>
       </c>
       <c r="B80" t="n">
-        <v>1.392519235610962</v>
+        <v>0.704182901803185</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9635294117647059</v>
       </c>
       <c r="B81" t="n">
-        <v>1.442789485580043</v>
+        <v>0.7064000052564284</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9623529411764705</v>
       </c>
       <c r="B82" t="n">
-        <v>1.40231164087329</v>
+        <v>0.7049277354689205</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9650000000000001</v>
       </c>
       <c r="B83" t="n">
-        <v>1.393888812316092</v>
+        <v>0.7045554062899422</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9650000000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>1.398922612792567</v>
+        <v>0.7069427861886866</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9623529411764705</v>
       </c>
       <c r="B85" t="n">
-        <v>1.391090267582944</v>
+        <v>0.7073435608078452</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9611764705882353</v>
       </c>
       <c r="B86" t="n">
-        <v>1.408348934692249</v>
+        <v>0.7038572079995099</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9644117647058823</v>
       </c>
       <c r="B87" t="n">
-        <v>1.407185962325648</v>
+        <v>0.7041413854150211</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9641176470588233</v>
       </c>
       <c r="B88" t="n">
-        <v>1.445368386151498</v>
+        <v>0.7041206394924837</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9638235294117647</v>
       </c>
       <c r="B89" t="n">
-        <v>1.399489306567008</v>
+        <v>0.707488428143894</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9602941176470587</v>
       </c>
       <c r="B90" t="n">
-        <v>1.393883738601417</v>
+        <v>0.7059136594043058</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9608823529411765</v>
       </c>
       <c r="B91" t="n">
-        <v>1.401618332193609</v>
+        <v>0.7037607817088857</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9635294117647059</v>
       </c>
       <c r="B92" t="n">
-        <v>1.390441106076826</v>
+        <v>0.7050012139713063</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9614705882352941</v>
       </c>
       <c r="B93" t="n">
-        <v>1.40531293341988</v>
+        <v>0.7064728035646326</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9626470588235293</v>
       </c>
       <c r="B94" t="n">
-        <v>1.400537892391807</v>
+        <v>0.7061499357223511</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9626470588235295</v>
       </c>
       <c r="B95" t="n">
-        <v>1.391789195830362</v>
+        <v>0.7070871696752661</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9635294117647059</v>
       </c>
       <c r="B96" t="n">
-        <v>1.388683933960764</v>
+        <v>0.7069137061343473</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9652941176470589</v>
       </c>
       <c r="B97" t="n">
-        <v>1.392429793090151</v>
+        <v>0.7039219772114473</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9629411764705883</v>
       </c>
       <c r="B98" t="n">
-        <v>1.39811568929438</v>
+        <v>0.7062333085957695</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9641176470588233</v>
       </c>
       <c r="B99" t="n">
-        <v>1.395523665244119</v>
+        <v>0.7039907890207627</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9661764705882353</v>
       </c>
       <c r="B100" t="n">
-        <v>1.405262658470555</v>
+        <v>0.7045458169544444</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9658823529411764</v>
       </c>
       <c r="B101" t="n">
-        <v>1.392664616568047</v>
+        <v>0.7044613045804641</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9647058823529411</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7040304436403162</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9647058823529411</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7038834340432111</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9644117647058823</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7064588210161995</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9397058823529413</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7857384120716768</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.956764705882353</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7275557447882259</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9570588235294117</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7142036381889793</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.956470588235294</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7112401969292584</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9588235294117647</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7098803976002861</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9594117647058823</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7107291291741764</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9605882352941175</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7103446897338418</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9605882352941175</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7083719092256883</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.958235294117647</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7067717734505149</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9594117647058823</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7079441757763133</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9605882352941175</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7072260239545036</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9594117647058823</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.7084360122680664</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9611764705882353</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.7049645045224358</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9617647058823531</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7054003792650559</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9611764705882353</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.706747805371004</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9629411764705881</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7065376954920152</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9623529411764705</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7045837921254775</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9629411764705883</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7042758499874788</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9576470588235293</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.707923222990597</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9611764705882353</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.7058423757553101</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9611764705882353</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7038598411223468</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9611764705882353</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7073265945210176</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9594117647058823</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.703939742901746</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9623529411764705</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7064999131595388</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9605882352941175</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7053125851294574</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9635294117647059</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.703792624613818</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9623529411764705</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7031612255994011</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9629411764705881</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7066284908967859</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7045367465299719</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9635294117647059</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7050763894529903</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9635294117647059</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7053035567788517</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9635294117647059</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7050719155984766</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9623529411764705</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7035710040260764</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9629411764705881</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7040194833979887</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9617647058823529</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.7072094573694117</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9570588235294117</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.704340868136462</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9594117647058823</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7041281426654142</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9594117647058823</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7056938620174632</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7038435410050785</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9617647058823529</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7038683996481054</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9635294117647059</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7040195219657001</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9629411764705883</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7046676453422097</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9629411764705881</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7042479935814353</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9629411764705881</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7041481768383699</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9635294117647059</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7043081627172583</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.7044767527019277</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9623529411764705</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.70564064208199</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9641176470588235</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7024027740254122</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9641176470588235</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7049084481071023</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9635294117647059</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7027930301778457</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9623529411764705</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7043244978960823</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9623529411764705</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7042350137934965</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9617647058823531</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7021365831880009</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9623529411764705</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7016600475591772</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9629411764705883</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7030744552612305</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9617647058823529</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7042047206093284</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9635294117647059</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7027408550767338</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9623529411764705</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7017092003541834</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9641176470588235</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7027745772810543</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9647058823529411</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7030003877247081</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9623529411764705</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7022879123687744</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9641176470588235</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7032955113579246</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9652941176470589</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7026597015997943</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9635294117647059</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.7068061723428614</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9635294117647059</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7048317229046541</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9647058823529411</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7019949800827924</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9641176470588235</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7029494818519143</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9652941176470589</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7028885939541984</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9629411764705883</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7048637025496539</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9658823529411764</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7018931157448712</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9652941176470589</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7029524831210866</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9647058823529411</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7023877115810618</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9652941176470589</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7021110092892366</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9652941176470589</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7011465184828815</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9647058823529411</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7053856954855078</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9635294117647059</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7033412421450895</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9652941176470589</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.7014260782915003</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9652941176470589</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7021847086794236</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9652941176470589</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7027230227694792</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9652941176470589</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7024755933705498</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9635294117647059</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7020384844611672</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9641176470588235</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7026253903613371</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9658823529411764</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.703037935144761</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9658823529411764</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7037435699911678</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9673529411764706</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7021649900604697</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9650000000000001</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7027310799149906</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9667647058823529</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7033804374582627</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9644117647058823</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7024669436847463</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9641176470588235</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7014031760832843</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9679411764705883</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7023370406206917</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9679411764705883</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7022379847133861</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9667647058823529</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.702261770472807</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9664705882352941</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7019201376858879</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9652941176470589</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.702873755903805</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9673529411764706</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7022565638317781</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9658823529411764</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7010672092437744</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9661764705882353</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7019395477631513</v>
       </c>
     </row>
   </sheetData>
